--- a/CASUAL/LA GSO/AALA, MELODY MARASIGAN.xlsx
+++ b/CASUAL/LA GSO/AALA, MELODY MARASIGAN.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>7/12-14/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>12/27-29/2022</t>
@@ -641,14 +638,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,9 +658,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,7 +1188,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1231,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1295,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1358,7 +1355,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1421,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1487,7 +1484,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1585,7 +1582,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1641,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1709,7 +1706,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1752,7 +1749,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1827,7 +1824,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2010,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2079,7 +2076,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2137,7 +2134,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2203,7 +2200,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2256,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2331,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2374,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2440,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2496,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,9 +2972,9 @@
   <dimension ref="A2:K158"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,14 +3004,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3025,16 +3022,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35814</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3047,16 +3044,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3082,18 +3079,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3140,7 +3137,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.363</v>
+        <v>58.863</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3150,7 +3147,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>90</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4392,7 +4389,7 @@
         <v>44834</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="13">
         <v>1.25</v>
@@ -4410,7 +4407,7 @@
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4418,7 +4415,7 @@
         <v>44865</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -4466,7 +4463,7 @@
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="39">
@@ -4488,7 +4485,7 @@
         <v>44926</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -4506,13 +4503,13 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="39">
@@ -4754,14 +4751,18 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45231</v>
+      </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="s">
-        <v>65</v>
+      <c r="G88" s="13">
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4769,15 +4770,19 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45261</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -5890,17 +5895,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5938,7 +5943,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5968,14 +5973,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5986,16 +5991,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35814</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6008,16 +6013,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6043,18 +6048,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6111,7 +6116,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table132[[EARNED ]])-SUM(Table132[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>123.5</v>
+        <v>122.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6425,8 +6430,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -6435,10 +6444,14 @@
         <f>IF(ISBLANK(Table132[[#This Row],[EARNED]]),"",Table132[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>1</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="49">
+        <v>45273</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
@@ -7546,17 +7559,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">

--- a/CASUAL/LA GSO/AALA, MELODY MARASIGAN.xlsx
+++ b/CASUAL/LA GSO/AALA, MELODY MARASIGAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -254,6 +254,12 @@
   </si>
   <si>
     <t>9/1,2,5,6/2022</t>
+  </si>
+  <si>
+    <t>FL(3-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -638,17 +644,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,6 +661,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,7 +1194,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1237,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1301,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1361,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1421,7 +1427,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1490,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1588,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1647,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1712,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1755,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1830,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2016,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2076,7 +2082,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2140,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2206,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2262,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2331,7 +2337,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2374,7 +2380,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2440,7 +2446,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2502,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2598,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K158" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K159" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2969,12 +2975,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K158"/>
+  <dimension ref="A2:K159"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A65" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,14 +3010,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3022,16 +3028,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35814</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3044,16 +3050,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3079,18 +3085,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3137,7 +3143,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.863</v>
+        <v>55.863</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4773,11 +4779,15 @@
       <c r="A89" s="40">
         <v>45261</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
-      <c r="D89" s="39"/>
+      <c r="D89" s="39">
+        <v>3</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
@@ -4790,7 +4800,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="48" t="s">
+        <v>73</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4806,7 +4818,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45292</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4822,7 +4836,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45323</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4838,7 +4854,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45352</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4854,7 +4872,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45383</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4870,7 +4890,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45413</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4886,7 +4908,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45444</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4902,7 +4926,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45474</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4918,7 +4944,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45505</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5878,34 +5906,50 @@
       <c r="K157" s="20"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="41"/>
-      <c r="B158" s="15"/>
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="13"/>
-      <c r="D158" s="43"/>
+      <c r="D158" s="39"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="15"/>
-      <c r="G158" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H158" s="43"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
       <c r="I158" s="9"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="15"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="43"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5940,7 +5984,7 @@
   </sheetPr>
   <dimension ref="A2:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
@@ -5973,14 +6017,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5991,16 +6035,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35814</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6013,16 +6057,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6048,18 +6092,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7559,17 +7603,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
